--- a/3年後期/企画/ゲーム案.xlsx
+++ b/3年後期/企画/ゲーム案.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\ゲーム制作\3年後期\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\3年後期\企画\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F852499A-EEF9-4323-98A7-B6E91B09768B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F874FBBA-2BA4-4DD4-AF36-A535812DDB2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" xr2:uid="{A33AE295-1320-4C66-8942-CC7674D2E98C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" activeTab="2" xr2:uid="{A33AE295-1320-4C66-8942-CC7674D2E98C}"/>
   </bookViews>
   <sheets>
-    <sheet name="ゲーム案" sheetId="6" r:id="rId1"/>
-    <sheet name="ゲーム案２" sheetId="1" r:id="rId2"/>
+    <sheet name="世界観とシステムの案" sheetId="6" r:id="rId1"/>
+    <sheet name="ゲームシステムの案" sheetId="1" r:id="rId2"/>
     <sheet name="ダンジョン" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>戦略性の変化</t>
     <rPh sb="0" eb="2">
@@ -632,73 +632,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>世界各地には神々の遺物が存在しておりその一つとしてダンジョンが存在する。ダンジョンには、モンスターや植物鉱物などが生み出せされ、モンスターを倒すといろんなエネルギーに使える魔石や素材を入手できる。冒険者は、それで生計をたて、ダンジョンの奥にあるであろうお宝を求めてダンジョンを潜る。</t>
-    <rPh sb="0" eb="4">
-      <t>セカイカクチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カミガミ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イブツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ショクブツ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>コウブツ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>マセキ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="98" eb="101">
-      <t>ボウケンシャ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>セイケイ</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>タカラ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>モグ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>１、ダンジョンに入るとマップがランダム生成され、入るたびに新鮮味を味わえる。
 ２、ダンジョンではプレイヤーは成長できず、ギルドに帰り神様の恩恵によって戦った経験値をステータスに割り振ることが出来る</t>
     <rPh sb="8" eb="9">
@@ -742,19 +675,6 @@
     </rPh>
     <rPh sb="95" eb="97">
       <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダンジョンのランダム生成ｍの実装が困難</t>
-    <rPh sb="10" eb="12">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コンナン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -880,6 +800,259 @@
     </rPh>
     <rPh sb="134" eb="136">
       <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンのランダム生成の実装が難しそう</t>
+    <rPh sb="10" eb="12">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界各地には神々の遺物が存在しており、その一つとしてダンジョンが存在する。ダンジョンには、モンスターや植物鉱物などが生み出せされ、モンスターを倒すといろんなエネルギーに使える魔石や素材を入手できる。冒険者は、それで生計をたて、ダンジョンの奥にあるであろうお宝を求めてダンジョンを潜る。</t>
+    <rPh sb="0" eb="4">
+      <t>セカイカクチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カミガミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イブツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウブツ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>マセキ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ボウケンシャ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>モグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃の弾数で属性や効果を付けて戦う。
+例
+１段目（斬撃）：毒の付与
+２段目（突き）：スロー
+３段目（叩きつけ）：毒状態の敵に対してダメージを増加</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ザンゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ドクジョウタイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボに属性や状態をカスタムして戦う</t>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム生成</t>
+    <rPh sb="4" eb="6">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地形：毒沼やガス、水たまりなどの地形があり場所によって効果がある。
+（例）水たまりにいる敵に電気の攻撃をすると同じ水たまりにいる敵にもダメージが入る。</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドクヌマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンに入る時、ダンジョンに発生しやすい敵の有利属性や環境を示して、どのような装備にしようか考えれるようにする。</t>
+    <rPh sb="6" eb="7">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ユウリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1273,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0381D590-05E2-44A3-A22E-093B345194ED}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1304,13 +1477,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="88.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1340,13 +1513,13 @@
     </row>
     <row r="5" spans="1:4" ht="108" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1360,13 +1533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67880560-C53A-4536-B9CF-1B893C878D31}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.09765625" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.796875" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.796875" customWidth="1"/>
@@ -1396,9 +1569,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-    </row>
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
@@ -1424,7 +1594,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1446,8 +1616,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1460,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52CC250-7B87-42C1-8E9B-337DC7871191}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1489,6 +1664,22 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1509,12 +1700,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3年後期/企画/ゲーム案.xlsx
+++ b/3年後期/企画/ゲーム案.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\3年後期\企画\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F874FBBA-2BA4-4DD4-AF36-A535812DDB2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40705FA3-F95E-49FF-9420-EA88E93E555D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" activeTab="2" xr2:uid="{A33AE295-1320-4C66-8942-CC7674D2E98C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" xr2:uid="{A33AE295-1320-4C66-8942-CC7674D2E98C}"/>
   </bookViews>
   <sheets>
     <sheet name="世界観とシステムの案" sheetId="6" r:id="rId1"/>
     <sheet name="ゲームシステムの案" sheetId="1" r:id="rId2"/>
     <sheet name="ダンジョン" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="属性" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>戦略性の変化</t>
     <rPh sb="0" eb="2">
@@ -1053,6 +1053,437 @@
     </rPh>
     <rPh sb="48" eb="49">
       <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃によって地形の状態が変化する</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎の攻撃や炎のスライムを倒すとその地点に炎が付く。炎が付いてるところに当たるとダメージを受けその帆のをに別の属性の攻撃を加えると追加でダメージが発生する。
+炎が燃えている場所にいる敵に雷の攻撃をすると過負荷が発生し追加ダメージを与える。</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>カフカ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘システム</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地</t>
+    <rPh sb="0" eb="1">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闇</t>
+    <rPh sb="0" eb="1">
+      <t>ヤミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よくある属性</t>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やけど状態などになり継続ダメージが入る。</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃もあるが、回復にも属していることがよくある。</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲攻撃に長けているイメージ。</t>
+    <rPh sb="0" eb="4">
+      <t>ハンイコウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力が高く、シールドを張ったりできる。</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素早いイメージ。スタンをさせたりできる。</t>
+    <rPh sb="0" eb="2">
+      <t>スバヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復が得意。植物を操って攻撃。</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アヤツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を凍らせて動けなくしたりできる。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番回復が得意。見方をサポートするバフや、闇属性に特攻のある攻撃が多い。</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ヤミゾクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トッコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒や敵のHPを吸収したり、即死攻撃が出来たり、デバフを撒いたりできる。</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソクシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の属性</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重力</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を重くして動けなくしたり、自分を軽くしてジャンプ力を高めたりできる</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地形を利用して戦う</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を吹き飛ばして罠や穴に落としたり、爆発する鉱石を遠距離から攻撃して爆発する鉱石の敵を一掃したりできる。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1446,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0381D590-05E2-44A3-A22E-093B345194ED}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1531,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67880560-C53A-4536-B9CF-1B893C878D31}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1616,12 +2047,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1635,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52CC250-7B87-42C1-8E9B-337DC7871191}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1697,17 +2149,113 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40528C1-EEC1-4A5F-8073-3AF0EF20E161}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.09765625" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
